--- a/ConfigTable/xlsxs/race.xlsx
+++ b/ConfigTable/xlsxs/race.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\uRPG\Asset\mb\xlsxs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\uRPG\ConfigTable\xlsxs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7745994F-451F-4629-9D10-BA8835E927F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A5F33E6-0AFC-4B94-81BA-595D2EE0D237}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="69">
   <si>
     <t>race[!.$][funcInt]</t>
   </si>
@@ -188,10 +188,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>人类的介绍</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>矮人的介绍</t>
   </si>
   <si>
@@ -239,6 +235,17 @@
   <si>
     <t>WLModel</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否开放</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>isOpen[][funcInt]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>人类是一个高贵的种族，他们起源于一场意外，两个猴子来到位于大陆的魔法之泉，他们恋爱了，最终产生了第人类的祖先...</t>
   </si>
 </sst>
 </file>
@@ -291,7 +298,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -313,6 +320,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -721,10 +731,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R20"/>
+  <dimension ref="A1:S20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -737,12 +747,12 @@
     <col min="11" max="16384" width="10.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="6" customFormat="1" ht="51.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" s="6" customFormat="1" ht="51.75" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>1</v>
@@ -792,8 +802,11 @@
       <c r="R1" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S1" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -848,19 +861,22 @@
       <c r="R2" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S2" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="E3" s="2">
         <v>10</v>
@@ -889,19 +905,22 @@
       <c r="M3" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E4" s="2">
         <v>15</v>
@@ -930,19 +949,22 @@
       <c r="M4" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E5" s="2">
         <v>10</v>
@@ -971,19 +993,22 @@
       <c r="M5" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E6" s="2">
         <v>10</v>
@@ -1012,19 +1037,22 @@
       <c r="M6" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E7" s="2">
         <v>15</v>
@@ -1053,19 +1081,22 @@
       <c r="M7" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E8" s="2">
         <v>10</v>
@@ -1094,19 +1125,22 @@
       <c r="M8" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E9" s="2">
         <v>10</v>
@@ -1135,19 +1169,22 @@
       <c r="M9" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E10" s="2">
         <v>10</v>
@@ -1176,17 +1213,20 @@
       <c r="M10" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D14" s="5"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D15" s="5"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D16" s="5"/>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.3">

--- a/ConfigTable/xlsxs/race.xlsx
+++ b/ConfigTable/xlsxs/race.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\uRPG\ConfigTable\xlsxs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A5F33E6-0AFC-4B94-81BA-595D2EE0D237}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{338F73CE-9965-40EF-8E69-8A9661B6563C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="71">
   <si>
     <t>race[!.$][funcInt]</t>
   </si>
@@ -246,6 +246,12 @@
   </si>
   <si>
     <t>人类是一个高贵的种族，他们起源于一场意外，两个猴子来到位于大陆的魔法之泉，他们恋爱了，最终产生了第人类的祖先...</t>
+  </si>
+  <si>
+    <t>spaceUType[][funcInt]</t>
+  </si>
+  <si>
+    <t>所在场景</t>
   </si>
 </sst>
 </file>
@@ -263,6 +269,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -275,6 +282,7 @@
     <font>
       <sz val="9"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -298,7 +306,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -323,6 +331,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -731,10 +745,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S20"/>
+  <dimension ref="A1:T20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -747,7 +761,7 @@
     <col min="11" max="16384" width="10.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="6" customFormat="1" ht="51.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" s="6" customFormat="1" ht="51.75" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -805,8 +819,11 @@
       <c r="S1" s="7" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T1" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -864,8 +881,11 @@
       <c r="S2" s="8" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T2" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>26</v>
       </c>
@@ -908,8 +928,11 @@
       <c r="S3" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T3" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>27</v>
       </c>
@@ -952,8 +975,11 @@
       <c r="S4" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T4" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>28</v>
       </c>
@@ -996,8 +1022,11 @@
       <c r="S5" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T5" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>29</v>
       </c>
@@ -1040,8 +1069,11 @@
       <c r="S6" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T6" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>30</v>
       </c>
@@ -1084,8 +1116,11 @@
       <c r="S7" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T7" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>31</v>
       </c>
@@ -1128,8 +1163,11 @@
       <c r="S8" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T8" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>32</v>
       </c>
@@ -1172,8 +1210,11 @@
       <c r="S9" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>33</v>
       </c>
@@ -1216,17 +1257,20 @@
       <c r="S10" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D14" s="5"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D15" s="5"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D16" s="5"/>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.3">

--- a/ConfigTable/xlsxs/race.xlsx
+++ b/ConfigTable/xlsxs/race.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\uRPG\ConfigTable\xlsxs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{338F73CE-9965-40EF-8E69-8A9661B6563C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D686386-FB75-442F-BEB6-C71FD4EB9939}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -248,10 +248,11 @@
     <t>人类是一个高贵的种族，他们起源于一场意外，两个猴子来到位于大陆的魔法之泉，他们恋爱了，最终产生了第人类的祖先...</t>
   </si>
   <si>
+    <t>所在场景</t>
+  </si>
+  <si>
     <t>spaceUType[][funcInt]</t>
-  </si>
-  <si>
-    <t>所在场景</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -747,8 +748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -819,8 +820,8 @@
       <c r="S1" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="T1" s="6" t="s">
-        <v>69</v>
+      <c r="T1" s="7" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -882,7 +883,7 @@
         <v>66</v>
       </c>
       <c r="T2" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
